--- a/src/test/resources/template/testTemplate.xlsx
+++ b/src/test/resources/template/testTemplate.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13200"/>
+    <workbookView windowWidth="28800" windowHeight="12560"/>
   </bookViews>
   <sheets>
     <sheet name="资产信息表-横表" sheetId="1" r:id="rId1"/>
     <sheet name="资产负债表-竖表" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -167,10 +167,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -233,7 +234,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,10 +255,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -263,7 +272,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,14 +355,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -293,81 +363,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -378,79 +379,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,97 +553,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,27 +664,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,6 +689,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -719,16 +720,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -737,152 +738,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -943,6 +944,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -953,6 +957,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1306,7 +1322,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E2" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6"/>
@@ -1315,7 +1331,7 @@
     <col min="2" max="2" width="18.4423076923077" style="19" customWidth="1"/>
     <col min="3" max="3" width="15.2211538461538" style="19" customWidth="1"/>
     <col min="4" max="4" width="18.6634615384615" style="19" customWidth="1"/>
-    <col min="5" max="5" width="19.5576923076923" style="19" customWidth="1"/>
+    <col min="5" max="5" width="19.5576923076923" style="20" customWidth="1"/>
     <col min="6" max="6" width="9" style="19"/>
     <col min="7" max="7" width="10.2211538461538" style="19" customWidth="1"/>
     <col min="8" max="8" width="10.4423076923077" style="19" customWidth="1"/>
@@ -1324,28 +1340,28 @@
   </cols>
   <sheetData>
     <row r="1" ht="26" spans="2:9">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="3" ht="17" spans="2:5">
       <c r="B3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="26" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1353,69 +1369,69 @@
       <c r="B4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="26" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" ht="17" spans="1:9">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" ht="68" spans="1:9">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="24" t="s">
         <v>22</v>
       </c>
     </row>
